--- a/Documentation/Phase_3/External Documents/TraceabilityMatrix.xlsx
+++ b/Documentation/Phase_3/External Documents/TraceabilityMatrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\College Work\Third Year College Work\Winter 2017 Semester\CIS 375 Software Engineering\Use Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\College Work\Third Year College Work\Winter 2017 Semester\CIS 375 Software Engineering\RevisedItems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="89">
   <si>
     <t>Artifact</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>Use Case 2.1-Sales Report Creation</t>
-  </si>
-  <si>
-    <t>Use Case 2.2 Update Sales Promotions and Related Items</t>
-  </si>
-  <si>
-    <t>Use Case 3.1-View/Update store info/Close</t>
-  </si>
-  <si>
-    <t>Use Case 4.1-Manage inventory</t>
   </si>
   <si>
     <t>Use Case Summary Document</t>
@@ -56,19 +47,7 @@
     <t>Class Diagram Use Case 2.1-Sales Report Creation</t>
   </si>
   <si>
-    <t>Class Diagram Use Case 2.2-Update Sales Promotions and Related Items</t>
-  </si>
-  <si>
-    <t>Class Diagram Use Case 3.1-View/Update store info/ Close</t>
-  </si>
-  <si>
-    <t>Class Diagram Use case 4.1- Manage Inventory</t>
-  </si>
-  <si>
     <t>Sequence Diagram Use Case 1.1-Ring Up Customer</t>
-  </si>
-  <si>
-    <t>Communication Diagram Use Case 4.1-Manage Inventory</t>
   </si>
   <si>
     <t>Data Flow Diagram</t>
@@ -78,15 +57,6 @@
   </si>
   <si>
     <t>State Diagram Use Case 2.1-Sales Report Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Diagram Use Case 2.2-Update Sales Promotions </t>
-  </si>
-  <si>
-    <t>State Diagram Use Case 3.1-View/Update store info/ Close</t>
-  </si>
-  <si>
-    <t>State Diagram Use case 4.1- Manage Inventory</t>
   </si>
   <si>
     <t>State Diagram-System</t>
@@ -209,12 +179,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Use Case 2.2-Update Sales Promotions and Related Items</t>
-  </si>
-  <si>
-    <t>Use Case 4.1-Manage Inventory</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -225,9 +189,6 @@
   </si>
   <si>
     <t>Communication Diagram Use Case 4.1-Manage Inventory </t>
-  </si>
-  <si>
-    <t>State Diagram Use Case 2.2-Update Sales Promotions and Related Items</t>
   </si>
   <si>
     <t xml:space="preserve">State Diagram-System </t>
@@ -282,6 +243,54 @@
   </si>
   <si>
     <t>SRS 8.3 Analysis metrics to be used </t>
+  </si>
+  <si>
+    <t>Use Case 3.1-Update Sales Promotions and Related Items</t>
+  </si>
+  <si>
+    <t>Use Case 4.1-View/Update store info/Close</t>
+  </si>
+  <si>
+    <t>Use Case 5.1-Manage Inventory</t>
+  </si>
+  <si>
+    <t>Use Case 3.1 Update Sales Promotions and Related Items</t>
+  </si>
+  <si>
+    <t>Use Case 5.1-Manage inventory</t>
+  </si>
+  <si>
+    <t>Class Diagram Use Case 3.1-Update Sales Promotions and Related Items</t>
+  </si>
+  <si>
+    <t>Class Diagram Use case 5.1- Manage Inventory</t>
+  </si>
+  <si>
+    <t>Class Diagram Use Case 4.1-View/Update store info/ Close</t>
+  </si>
+  <si>
+    <t>Class Diagram Use Case 3.1 Update Sales Promotions and Related Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Diagram Use Case 3.1-Update Sales Promotions </t>
+  </si>
+  <si>
+    <t>State Diagram Use Case 4.1-View/Update store info/ Close</t>
+  </si>
+  <si>
+    <t>State Diagram Use case 5.1- Manage Inventory</t>
+  </si>
+  <si>
+    <t>Communication Diagram Use Case 5.1-Manage Inventory</t>
+  </si>
+  <si>
+    <t>State Diagram Use Case 3.1-Update Sales Promotions and Related Items</t>
+  </si>
+  <si>
+    <t>Software Architecture Diagram</t>
+  </si>
+  <si>
+    <t>Hardware Architecture Diagram</t>
   </si>
 </sst>
 </file>
@@ -861,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH210"/>
+  <dimension ref="A1:BI210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z78" sqref="Z78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +892,7 @@
     <col min="36" max="36" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,208 +903,213 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="W1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="X1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Y1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Z1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="AA1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="AB1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="AC1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="AD1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="AE1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="AF1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="AG1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AH1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AI1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AK1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AL1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AM1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AN1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AO1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AP1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AR1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AS1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AT1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AU1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AV1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AW1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="32" t="s">
+      <c r="AX1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="32" t="s">
+      <c r="AY1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="32" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="32" t="s">
+      <c r="BA1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="32" t="s">
+      <c r="BB1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="32" t="s">
+      <c r="BC1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="32" t="s">
+      <c r="BD1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="32" t="s">
+      <c r="BE1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="32" t="s">
+      <c r="BF1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="32" t="s">
+      <c r="BG1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="32" t="s">
+      <c r="BH1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI1" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="23"/>
-    </row>
-    <row r="2" spans="1:60" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -1106,10 +1120,10 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -1125,23 +1139,17 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
-      <c r="AU2" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
-      <c r="AW2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
@@ -1152,26 +1160,26 @@
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
     </row>
-    <row r="3" spans="1:60" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1179,11 +1187,11 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1193,10 +1201,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -1212,23 +1220,17 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
-      <c r="AU3" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
-      <c r="AW3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
@@ -1239,39 +1241,39 @@
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
     </row>
-    <row r="4" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -1280,10 +1282,10 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -1299,23 +1301,17 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
-      <c r="AU4" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
-      <c r="AW4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
@@ -1326,40 +1322,40 @@
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
     </row>
-    <row r="5" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1367,10 +1363,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -1386,23 +1382,17 @@
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
-      <c r="AU5" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
-      <c r="AW5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
@@ -1413,43 +1403,43 @@
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
     </row>
-    <row r="6" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -1457,7 +1447,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -1473,23 +1463,17 @@
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
-      <c r="AU6" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
-      <c r="AW6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
@@ -1500,9 +1484,9 @@
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
     </row>
-    <row r="7" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
@@ -1510,7 +1494,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1521,7 +1505,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1534,7 +1518,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -1550,23 +1534,17 @@
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
-      <c r="AU7" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
-      <c r="AW7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX7" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -1577,9 +1555,9 @@
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
     </row>
-    <row r="8" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
@@ -1588,7 +1566,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1598,7 +1576,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1611,7 +1589,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -1627,23 +1605,17 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
-      <c r="AU8" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
-      <c r="AW8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
@@ -1654,12 +1626,12 @@
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
     </row>
-    <row r="9" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1668,19 +1640,19 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1725,13 +1697,13 @@
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
     </row>
-    <row r="10" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1740,10 +1712,10 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1752,7 +1724,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1796,14 +1768,14 @@
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
     </row>
-    <row r="11" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1812,7 +1784,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1822,7 +1794,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1865,15 +1837,15 @@
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
     </row>
-    <row r="12" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1882,7 +1854,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1892,7 +1864,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -1934,16 +1906,16 @@
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
     </row>
-    <row r="13" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1952,7 +1924,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1962,7 +1934,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -2003,12 +1975,12 @@
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
     </row>
-    <row r="14" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2022,12 +1994,12 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2053,7 +2025,7 @@
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
@@ -2074,16 +2046,16 @@
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
     </row>
-    <row r="15" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2092,11 +2064,11 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2104,7 +2076,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
@@ -2145,24 +2117,24 @@
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
     </row>
-    <row r="16" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2174,7 +2146,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2187,7 +2159,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
@@ -2200,7 +2172,7 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -2226,10 +2198,10 @@
     </row>
     <row r="17" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2246,7 +2218,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2278,7 +2250,7 @@
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
@@ -2295,11 +2267,11 @@
     </row>
     <row r="18" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2316,7 +2288,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2347,7 +2319,7 @@
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV18" s="7"/>
       <c r="AW18" s="7"/>
@@ -2364,12 +2336,12 @@
     </row>
     <row r="19" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2386,7 +2358,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2416,7 +2388,7 @@
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
@@ -2433,13 +2405,13 @@
     </row>
     <row r="20" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2456,7 +2428,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -2485,7 +2457,7 @@
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
@@ -2502,14 +2474,14 @@
     </row>
     <row r="21" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2526,7 +2498,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -2554,7 +2526,7 @@
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
@@ -2571,7 +2543,7 @@
     </row>
     <row r="22" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
@@ -2594,7 +2566,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -2621,7 +2593,7 @@
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
@@ -2638,7 +2610,7 @@
     </row>
     <row r="23" spans="1:60" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
@@ -2662,7 +2634,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -2688,7 +2660,7 @@
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
@@ -2706,7 +2678,7 @@
     </row>
     <row r="24" spans="1:60" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -2731,7 +2703,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -2747,7 +2719,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
       <c r="AL24" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
@@ -2767,18 +2739,18 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BH24" s="6"/>
     </row>
     <row r="25" spans="1:60" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
@@ -2804,7 +2776,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -2819,7 +2791,7 @@
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
@@ -2839,18 +2811,18 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BH25" s="6"/>
     </row>
     <row r="26" spans="1:60" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
@@ -2877,7 +2849,7 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -2891,7 +2863,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
@@ -2918,22 +2890,22 @@
     </row>
     <row r="27" spans="1:60" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2945,7 +2917,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2958,7 +2930,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -2971,7 +2943,7 @@
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
@@ -2998,7 +2970,7 @@
     </row>
     <row r="28" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3027,7 +2999,7 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
@@ -3063,7 +3035,7 @@
     </row>
     <row r="29" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3093,7 +3065,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
@@ -3104,7 +3076,7 @@
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
@@ -3130,7 +3102,7 @@
     </row>
     <row r="30" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3160,10 +3132,10 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -3197,7 +3169,7 @@
     </row>
     <row r="31" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3227,11 +3199,11 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
@@ -3264,7 +3236,7 @@
     </row>
     <row r="32" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3294,12 +3266,12 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
@@ -3331,7 +3303,7 @@
     </row>
     <row r="33" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3361,13 +3333,13 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
@@ -3398,7 +3370,7 @@
     </row>
     <row r="34" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3433,7 +3405,7 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
@@ -3463,7 +3435,7 @@
     </row>
     <row r="35" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3498,10 +3470,10 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI35" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
@@ -3530,7 +3502,7 @@
     </row>
     <row r="36" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3565,14 +3537,14 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK36" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
@@ -3599,7 +3571,7 @@
     </row>
     <row r="37" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3634,12 +3606,12 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
@@ -3666,7 +3638,7 @@
     </row>
     <row r="38" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3705,7 +3677,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
@@ -3731,7 +3703,7 @@
     </row>
     <row r="39" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3770,10 +3742,10 @@
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM39" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
@@ -3798,7 +3770,7 @@
     </row>
     <row r="40" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3839,7 +3811,7 @@
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="7"/>
@@ -3863,7 +3835,7 @@
     </row>
     <row r="41" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3904,10 +3876,10 @@
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -3930,7 +3902,7 @@
     </row>
     <row r="42" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3971,11 +3943,11 @@
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO42" s="7"/>
       <c r="AP42" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
@@ -3997,7 +3969,7 @@
     </row>
     <row r="43" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4038,12 +4010,12 @@
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR43" s="7"/>
       <c r="AS43" s="7"/>
@@ -4064,7 +4036,7 @@
     </row>
     <row r="44" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4105,13 +4077,13 @@
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO44" s="7"/>
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
       <c r="AR44" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS44" s="7"/>
       <c r="AT44" s="7"/>
@@ -4131,7 +4103,7 @@
     </row>
     <row r="45" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4172,14 +4144,14 @@
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO45" s="7"/>
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
       <c r="AS45" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
@@ -4198,7 +4170,7 @@
     </row>
     <row r="46" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4239,7 +4211,7 @@
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO46" s="7"/>
       <c r="AP46" s="7"/>
@@ -4247,7 +4219,7 @@
       <c r="AR46" s="7"/>
       <c r="AS46" s="7"/>
       <c r="AT46" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AU46" s="7"/>
       <c r="AV46" s="7"/>
@@ -4265,7 +4237,7 @@
     </row>
     <row r="47" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4313,7 +4285,7 @@
       <c r="AS47" s="7"/>
       <c r="AT47" s="7"/>
       <c r="AU47" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV47" s="7"/>
       <c r="AW47" s="7"/>
@@ -4330,7 +4302,7 @@
     </row>
     <row r="48" spans="1:59" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4378,10 +4350,10 @@
       <c r="AS48" s="7"/>
       <c r="AT48" s="7"/>
       <c r="AU48" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV48" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW48" s="7"/>
       <c r="AX48" s="7"/>
@@ -4395,9 +4367,9 @@
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
     </row>
-    <row r="49" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4445,11 +4417,11 @@
       <c r="AS49" s="7"/>
       <c r="AT49" s="7"/>
       <c r="AU49" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV49" s="7"/>
       <c r="AW49" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
@@ -4462,9 +4434,9 @@
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
     </row>
-    <row r="50" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4512,12 +4484,12 @@
       <c r="AS50" s="7"/>
       <c r="AT50" s="7"/>
       <c r="AU50" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AV50" s="7"/>
       <c r="AW50" s="7"/>
       <c r="AX50" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AY50" s="7"/>
       <c r="AZ50" s="2"/>
@@ -4529,9 +4501,9 @@
       <c r="BF50" s="2"/>
       <c r="BG50" s="2"/>
     </row>
-    <row r="51" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4583,7 +4555,7 @@
       <c r="AW51" s="7"/>
       <c r="AX51" s="7"/>
       <c r="AY51" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
@@ -4594,9 +4566,9 @@
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
     </row>
-    <row r="52" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4649,7 +4621,7 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
       <c r="AZ52" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA52" s="2"/>
       <c r="BB52" s="2"/>
@@ -4659,9 +4631,9 @@
       <c r="BF52" s="2"/>
       <c r="BG52" s="2"/>
     </row>
-    <row r="53" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4714,10 +4686,10 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA53" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
@@ -4726,9 +4698,9 @@
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
     </row>
-    <row r="54" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4781,11 +4753,11 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA54" s="2"/>
       <c r="BB54" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BC54" s="2"/>
       <c r="BD54" s="2"/>
@@ -4793,9 +4765,9 @@
       <c r="BF54" s="2"/>
       <c r="BG54" s="2"/>
     </row>
-    <row r="55" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4848,21 +4820,21 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2"/>
       <c r="BC55" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BD55" s="2"/>
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
     </row>
-    <row r="56" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4919,184 +4891,184 @@
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
       <c r="BD56" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE56" s="2"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="2"/>
     </row>
-    <row r="57" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Y57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH57" s="7"/>
       <c r="AI57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AX57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AY57" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ57" s="2"/>
       <c r="BA57" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB57" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BC57" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BD57" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE57" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BF57" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BG57" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -5153,17 +5125,17 @@
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
       <c r="BD58" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE58" s="2"/>
       <c r="BF58" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BG58" s="2"/>
     </row>
-    <row r="59" spans="1:59" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -5220,15 +5192,18 @@
       <c r="BB59" s="2"/>
       <c r="BC59" s="2"/>
       <c r="BD59" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE59" s="2"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:59" ht="21" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -5287,8 +5262,14 @@
       <c r="BE60" s="6"/>
       <c r="BF60" s="6"/>
       <c r="BG60" s="6"/>
-    </row>
-    <row r="61" spans="1:59" ht="21" x14ac:dyDescent="0.35">
+      <c r="BH60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -5347,8 +5328,11 @@
       <c r="BE61" s="6"/>
       <c r="BF61" s="6"/>
       <c r="BG61" s="6"/>
-    </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -5400,7 +5384,7 @@
       <c r="AX62" s="10"/>
       <c r="AY62" s="10"/>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -5452,7 +5436,7 @@
       <c r="AX63" s="10"/>
       <c r="AY63" s="10"/>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
